--- a/src/test/resources/case/login/fail.xlsx
+++ b/src/test/resources/case/login/fail.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\Idea\Projects\web-auto\src\test\resources\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\Idea\Projects\web-auto\src\test\resources\case\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CDF2F-07E2-4756-A4E0-79B129EF5549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE8331-6A91-4781-8BFD-EB870E3F0319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12168" yWindow="3588" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2148" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登录失败" sheetId="1" r:id="rId1"/>
-    <sheet name="登录成功" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,19 +62,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PartialUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13888887777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1235756658657353</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.html</t>
+    <t>13666644444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dssdfklmsdlfmdl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,10 +454,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -477,47 +468,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75109DB-847A-44EF-98BF-8CBD484F3D17}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>13888888888</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>